--- a/Supp_Data_1.xlsx
+++ b/Supp_Data_1.xlsx
@@ -148,9 +148,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Feb10-r1-a</t>
   </si>
   <si>
@@ -641,6 +638,9 @@
   </si>
   <si>
     <t>Distance to surface (cm)</t>
+  </si>
+  <si>
+    <t>Sampling Date</t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
         <v>-70.014179999999996</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2">
         <v>-70.015463999999994</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>-70.016625000000005</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>-70.017446000000007</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>-70.019068000000004</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>-70.019195999999994</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>-70.019651999999994</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>-70.019951000000006</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>-70.018724000000006</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>-70.018435999999994</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>-70.016649999999998</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>-70.019561999999993</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2">
         <v>-70.019202000000007</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2">
         <v>-70.019002999999998</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>-70.012715</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2">
         <v>-70.012341000000006</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2">
         <v>-70.011177000000004</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2">
         <v>-70.013349000000005</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>-70.009465000000006</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2">
         <v>-70.007632000000001</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
         <v>-70.006411999999997</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
         <v>-70.006400999999997</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2">
         <v>-70.006619000000001</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
         <v>-70.006895</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>-70.007135000000005</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2">
         <v>-70.007264000000006</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2">
         <v>-70.007831999999993</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="2">
         <v>-70.008064000000005</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2">
         <v>-70.008409999999998</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2">
         <v>-70.008628000000002</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2">
         <v>-70.013217999999995</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
         <v>-70.008875000000003</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2">
         <v>-70.008861999999993</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2">
         <v>-70.008885000000006</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="2">
         <v>-70.011568999999994</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>-70.014077</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2">
         <v>-70.013062000000005</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2">
         <v>-70.012966000000006</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2">
         <v>-70.004643999999999</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2">
         <v>-70.004643999999999</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2">
         <v>-70.006674000000004</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2">
         <v>-70.006674000000004</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
         <v>-70.008658999999994</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2">
         <v>-70.008658999999994</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2">
         <v>-70.010593999999998</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2">
         <v>-70.010035999999999</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="2">
         <v>-70.009946999999997</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2">
         <v>-70.009861999999998</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2">
         <v>-70.009799000000001</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2">
         <v>-70.009737999999999</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2">
         <v>-70.009698999999998</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2">
         <v>-70.009640000000005</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2">
         <v>-70.009589000000005</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2">
         <v>-70.009561000000005</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2">
         <v>-70.009524999999996</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2">
         <v>-70.010540000000006</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2">
         <v>-70.009504000000007</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2">
         <v>-70.009454000000005</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2">
         <v>-70.009429999999995</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2">
         <v>-70.009388999999999</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2">
         <v>-70.009336000000005</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2">
         <v>-70.009276999999997</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2">
         <v>-70.009215999999995</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2">
         <v>-70.009174000000002</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2">
         <v>-70.009119999999996</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2">
         <v>-70.009033000000002</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2">
         <v>-70.010502000000002</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2">
         <v>-70.008919000000006</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2">
         <v>-70.010444000000007</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2">
         <v>-70.010318999999996</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2">
         <v>-70.010273999999995</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2">
         <v>-70.010230000000007</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2">
         <v>-70.010182999999998</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2">
         <v>-70.010104999999996</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2">
         <v>-70.010648000000003</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2">
         <v>-70.010648000000003</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2">
         <v>-70.012643999999995</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2">
         <v>-70.012643999999995</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2">
         <v>-70.014782999999994</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2">
         <v>-70.014782999999994</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2">
         <v>-70.016802999999996</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2">
         <v>-70.016802999999996</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2">
         <v>-70.018939000000003</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
         <v>-70.018939000000003</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2">
         <v>-70.008927</v>
@@ -2718,7 +2718,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2736,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2745,10 +2745,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3473,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3491,48 +3491,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -3547,7 +3547,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I2" s="4">
         <v>43151</v>
@@ -3564,16 +3564,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2">
         <v>678</v>
@@ -3585,7 +3585,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I3" s="4">
         <v>43151</v>
@@ -3602,13 +3602,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -3623,7 +3623,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I4" s="4">
         <v>43151</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -3661,7 +3661,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I5" s="4">
         <v>43151</v>
@@ -3678,16 +3678,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
         <v>678</v>
@@ -3699,7 +3699,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I6" s="4">
         <v>43151</v>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -3737,7 +3737,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I7" s="4">
         <v>43151</v>
@@ -3754,13 +3754,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -3775,7 +3775,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" s="4">
         <v>43151</v>
@@ -3792,16 +3792,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2">
         <v>678</v>
@@ -3813,7 +3813,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I9" s="4">
         <v>43151</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -3851,7 +3851,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="4">
         <v>43151</v>
@@ -3868,13 +3868,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
@@ -3889,7 +3889,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I11" s="4">
         <v>43151</v>
@@ -3906,16 +3906,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2">
         <v>678</v>
@@ -3927,7 +3927,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I12" s="4">
         <v>43151</v>
@@ -3944,13 +3944,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
@@ -3965,7 +3965,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" s="4">
         <v>43151</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -4003,7 +4003,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I14" s="4">
         <v>43151</v>
@@ -4020,16 +4020,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2">
         <v>678</v>
@@ -4041,7 +4041,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I15" s="4">
         <v>43151</v>
@@ -4058,13 +4058,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -4079,7 +4079,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I16" s="4">
         <v>43151</v>
@@ -4096,13 +4096,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -4117,7 +4117,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I17" s="4">
         <v>43151</v>
@@ -4134,16 +4134,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2">
         <v>678</v>
@@ -4155,7 +4155,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" s="4">
         <v>43151</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -4193,7 +4193,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I19" s="4">
         <v>43151</v>
@@ -4210,13 +4210,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
@@ -4231,7 +4231,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I20" s="4">
         <v>43151</v>
@@ -4248,16 +4248,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2">
         <v>678</v>
@@ -4269,7 +4269,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I21" s="4">
         <v>43151</v>
@@ -4286,13 +4286,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -4307,7 +4307,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I22" s="4">
         <v>43151</v>
@@ -4324,13 +4324,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>6</v>
@@ -4345,7 +4345,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I23" s="4">
         <v>43151</v>
@@ -4362,16 +4362,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2">
         <v>678</v>
@@ -4383,7 +4383,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I24" s="4">
         <v>43151</v>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
@@ -4421,7 +4421,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I25" s="4">
         <v>43151</v>
@@ -4438,13 +4438,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -4459,7 +4459,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I26" s="4">
         <v>43151</v>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2">
         <v>678</v>
@@ -4497,7 +4497,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I27" s="4">
         <v>43151</v>
@@ -4514,13 +4514,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -4535,7 +4535,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" s="4">
         <v>43151</v>
@@ -4552,16 +4552,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2">
         <v>678</v>
@@ -4573,7 +4573,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="4">
         <v>43151</v>
@@ -4590,13 +4590,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
@@ -4611,7 +4611,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I30" s="4">
         <v>43151</v>
@@ -4628,16 +4628,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2">
         <v>678</v>
@@ -4649,7 +4649,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I31" s="4">
         <v>43151</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
@@ -4687,7 +4687,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I32" s="4">
         <v>43151</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -4725,7 +4725,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I33" s="4">
         <v>43151</v>
@@ -4742,13 +4742,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
@@ -4763,7 +4763,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I34" s="4">
         <v>43151</v>
@@ -4780,13 +4780,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
@@ -4801,7 +4801,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I35" s="4">
         <v>43151</v>
@@ -4818,16 +4818,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2">
         <v>678</v>
@@ -4839,7 +4839,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I36" s="4">
         <v>43151</v>
@@ -4856,13 +4856,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>19</v>
@@ -4877,7 +4877,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I37" s="4">
         <v>43151</v>
@@ -4894,13 +4894,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -4915,7 +4915,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I38" s="4">
         <v>43151</v>
@@ -4932,16 +4932,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2">
         <v>678</v>
@@ -4953,7 +4953,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I39" s="4">
         <v>43151</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -4991,7 +4991,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I40" s="4">
         <v>43151</v>
@@ -5008,16 +5008,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2">
         <v>678</v>
@@ -5029,7 +5029,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I41" s="4">
         <v>43151</v>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -5067,7 +5067,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I42" s="4">
         <v>43151</v>
@@ -5084,13 +5084,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -5105,7 +5105,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I43" s="4">
         <v>43151</v>
@@ -5122,16 +5122,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2">
         <v>678</v>
@@ -5143,7 +5143,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I44" s="4">
         <v>43151</v>
@@ -5160,13 +5160,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>19</v>
@@ -5181,7 +5181,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I45" s="4">
         <v>43151</v>
@@ -5198,16 +5198,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2">
         <v>678</v>
@@ -5219,7 +5219,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I46" s="4">
         <v>43151</v>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>19</v>
@@ -5257,7 +5257,7 @@
         <v>-20.953189999999999</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I47" s="4">
         <v>43151</v>
